--- a/CodesTCC/TCC2-Abritta/Etapa5/tentativa1/Planilha_Com_Classificacao.xlsx
+++ b/CodesTCC/TCC2-Abritta/Etapa5/tentativa1/Planilha_Com_Classificacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,90 +456,85 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Padrão</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>t2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>t3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>t4</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>t5</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>t8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>tSC</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tSB</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tB</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cc2 (t3-t2)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>cc3 (t5-t3)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>t5-t2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>s2 (t4-t3)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>s3 (t8-t5)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>tSC-t8</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>tB-tSB</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Ploidia</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Classe_Prevista</t>
         </is>
@@ -559,57 +554,54 @@
         <v>5.3</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>22.5</v>
       </c>
       <c r="F2" t="n">
-        <v>22.5</v>
+        <v>34.9</v>
       </c>
       <c r="G2" t="n">
-        <v>34.9</v>
+        <v>36.8</v>
       </c>
       <c r="H2" t="n">
-        <v>36.8</v>
+        <v>50.1</v>
       </c>
       <c r="I2" t="n">
-        <v>50.1</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>71.09999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="K2" t="n">
-        <v>100.8</v>
+        <v>108.8</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8</v>
+        <v>114.9</v>
       </c>
       <c r="M2" t="n">
-        <v>114.9</v>
+        <v>12.4</v>
       </c>
       <c r="N2" t="n">
-        <v>12.4</v>
+        <v>15.2</v>
       </c>
       <c r="O2" t="n">
-        <v>15.2</v>
+        <v>27.6</v>
       </c>
       <c r="P2" t="n">
-        <v>27.6</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
-        <v>21</v>
+        <v>29.7</v>
       </c>
       <c r="S2" t="n">
-        <v>29.7</v>
+        <v>6.1</v>
       </c>
       <c r="T2" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -627,57 +619,54 @@
         <v>4.9</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>25.5</v>
       </c>
       <c r="F3" t="n">
-        <v>25.5</v>
+        <v>36.3</v>
       </c>
       <c r="G3" t="n">
-        <v>36.3</v>
+        <v>37.1</v>
       </c>
       <c r="H3" t="n">
-        <v>37.1</v>
+        <v>50.7</v>
       </c>
       <c r="I3" t="n">
-        <v>50.7</v>
+        <v>55.1</v>
       </c>
       <c r="J3" t="n">
-        <v>55.1</v>
+        <v>102.4</v>
       </c>
       <c r="K3" t="n">
-        <v>102.4</v>
+        <v>107.6</v>
       </c>
       <c r="L3" t="n">
-        <v>107.6</v>
+        <v>118.8</v>
       </c>
       <c r="M3" t="n">
-        <v>118.8</v>
+        <v>10.8</v>
       </c>
       <c r="N3" t="n">
-        <v>10.8</v>
+        <v>14.4</v>
       </c>
       <c r="O3" t="n">
-        <v>14.4</v>
+        <v>25.2</v>
       </c>
       <c r="P3" t="n">
-        <v>25.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="R3" t="n">
-        <v>4.4</v>
+        <v>47.3</v>
       </c>
       <c r="S3" t="n">
-        <v>47.3</v>
+        <v>11.2</v>
       </c>
       <c r="T3" t="n">
-        <v>11.2</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,57 +684,54 @@
         <v>8.699999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>23.2</v>
       </c>
       <c r="F4" t="n">
-        <v>23.2</v>
+        <v>33.8</v>
       </c>
       <c r="G4" t="n">
-        <v>33.8</v>
+        <v>34.5</v>
       </c>
       <c r="H4" t="n">
-        <v>34.5</v>
+        <v>46.1</v>
       </c>
       <c r="I4" t="n">
-        <v>46.1</v>
+        <v>49.2</v>
       </c>
       <c r="J4" t="n">
-        <v>49.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>81.09999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>92.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="M4" t="n">
-        <v>99.8</v>
+        <v>10.6</v>
       </c>
       <c r="N4" t="n">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
       <c r="O4" t="n">
-        <v>12.3</v>
+        <v>22.9</v>
       </c>
       <c r="P4" t="n">
-        <v>22.9</v>
+        <v>0.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>3.1</v>
+        <v>31.9</v>
       </c>
       <c r="S4" t="n">
-        <v>31.9</v>
+        <v>7.7</v>
       </c>
       <c r="T4" t="n">
-        <v>7.7</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,57 +749,54 @@
         <v>5.3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="F5" t="n">
-        <v>25.9</v>
+        <v>36.2</v>
       </c>
       <c r="G5" t="n">
-        <v>36.2</v>
+        <v>36.8</v>
       </c>
       <c r="H5" t="n">
-        <v>36.8</v>
+        <v>50.1</v>
       </c>
       <c r="I5" t="n">
-        <v>50.1</v>
+        <v>52.2</v>
       </c>
       <c r="J5" t="n">
-        <v>52.2</v>
+        <v>104.3</v>
       </c>
       <c r="K5" t="n">
-        <v>104.3</v>
+        <v>106.7</v>
       </c>
       <c r="L5" t="n">
-        <v>106.7</v>
+        <v>114.9</v>
       </c>
       <c r="M5" t="n">
-        <v>114.9</v>
+        <v>10.3</v>
       </c>
       <c r="N5" t="n">
-        <v>10.3</v>
+        <v>13.9</v>
       </c>
       <c r="O5" t="n">
-        <v>13.9</v>
+        <v>24.2</v>
       </c>
       <c r="P5" t="n">
-        <v>24.2</v>
+        <v>0.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>52.1</v>
       </c>
       <c r="S5" t="n">
-        <v>52.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -831,57 +814,54 @@
         <v>9.199999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>24.1</v>
       </c>
       <c r="F6" t="n">
-        <v>24.1</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="H6" t="n">
-        <v>34.2</v>
+        <v>45.9</v>
       </c>
       <c r="I6" t="n">
-        <v>45.9</v>
+        <v>58.2</v>
       </c>
       <c r="J6" t="n">
-        <v>58.2</v>
+        <v>76.5</v>
       </c>
       <c r="K6" t="n">
-        <v>76.5</v>
+        <v>90.2</v>
       </c>
       <c r="L6" t="n">
-        <v>90.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>95.90000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="N6" t="n">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="O6" t="n">
-        <v>11.9</v>
+        <v>21.8</v>
       </c>
       <c r="P6" t="n">
-        <v>21.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2</v>
+        <v>12.3</v>
       </c>
       <c r="R6" t="n">
-        <v>12.3</v>
+        <v>18.3</v>
       </c>
       <c r="S6" t="n">
-        <v>18.3</v>
+        <v>5.7</v>
       </c>
       <c r="T6" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -899,57 +879,54 @@
         <v>8.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>22.8</v>
       </c>
       <c r="F7" t="n">
-        <v>22.8</v>
+        <v>33.1</v>
       </c>
       <c r="G7" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="H7" t="n">
-        <v>33.3</v>
+        <v>46.3</v>
       </c>
       <c r="I7" t="n">
-        <v>46.3</v>
+        <v>48.5</v>
       </c>
       <c r="J7" t="n">
-        <v>48.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>82.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="L7" t="n">
-        <v>88.8</v>
+        <v>100.8</v>
       </c>
       <c r="M7" t="n">
-        <v>100.8</v>
+        <v>10.3</v>
       </c>
       <c r="N7" t="n">
-        <v>10.3</v>
+        <v>13.2</v>
       </c>
       <c r="O7" t="n">
-        <v>13.2</v>
+        <v>23.5</v>
       </c>
       <c r="P7" t="n">
-        <v>23.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>33.6</v>
       </c>
       <c r="S7" t="n">
-        <v>33.6</v>
+        <v>12</v>
       </c>
       <c r="T7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -967,57 +944,54 @@
         <v>7.4</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>33.3</v>
       </c>
       <c r="G8" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="H8" t="n">
-        <v>33.6</v>
+        <v>47.9</v>
       </c>
       <c r="I8" t="n">
-        <v>47.9</v>
+        <v>49.6</v>
       </c>
       <c r="J8" t="n">
-        <v>49.6</v>
+        <v>93.3</v>
       </c>
       <c r="K8" t="n">
-        <v>93.3</v>
+        <v>102.1</v>
       </c>
       <c r="L8" t="n">
-        <v>102.1</v>
+        <v>109.1</v>
       </c>
       <c r="M8" t="n">
-        <v>109.1</v>
+        <v>11.3</v>
       </c>
       <c r="N8" t="n">
-        <v>11.3</v>
+        <v>14.6</v>
       </c>
       <c r="O8" t="n">
-        <v>14.6</v>
+        <v>25.9</v>
       </c>
       <c r="P8" t="n">
-        <v>25.9</v>
+        <v>0.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>43.7</v>
       </c>
       <c r="S8" t="n">
-        <v>43.7</v>
+        <v>7</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1035,57 +1009,54 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>23.1</v>
       </c>
       <c r="F9" t="n">
-        <v>23.1</v>
+        <v>33.8</v>
       </c>
       <c r="G9" t="n">
-        <v>33.8</v>
+        <v>34.6</v>
       </c>
       <c r="H9" t="n">
-        <v>34.6</v>
+        <v>46.1</v>
       </c>
       <c r="I9" t="n">
-        <v>46.1</v>
+        <v>54</v>
       </c>
       <c r="J9" t="n">
-        <v>54</v>
+        <v>91.5</v>
       </c>
       <c r="K9" t="n">
-        <v>91.5</v>
+        <v>105.9</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9</v>
+        <v>118.6</v>
       </c>
       <c r="M9" t="n">
-        <v>118.6</v>
+        <v>10.7</v>
       </c>
       <c r="N9" t="n">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="O9" t="n">
-        <v>12.3</v>
+        <v>23</v>
       </c>
       <c r="P9" t="n">
-        <v>23</v>
+        <v>0.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="R9" t="n">
-        <v>7.9</v>
+        <v>37.5</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5</v>
+        <v>12.7</v>
       </c>
       <c r="T9" t="n">
-        <v>12.7</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1103,57 +1074,54 @@
         <v>7.5</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>22.3</v>
       </c>
       <c r="F10" t="n">
-        <v>22.3</v>
+        <v>31.8</v>
       </c>
       <c r="G10" t="n">
         <v>31.8</v>
       </c>
       <c r="H10" t="n">
-        <v>31.8</v>
+        <v>44.3</v>
       </c>
       <c r="I10" t="n">
-        <v>44.3</v>
+        <v>45.2</v>
       </c>
       <c r="J10" t="n">
-        <v>45.2</v>
+        <v>80.7</v>
       </c>
       <c r="K10" t="n">
-        <v>80.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>88.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="M10" t="n">
-        <v>95.5</v>
+        <v>9.5</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="O10" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="P10" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9</v>
+        <v>35.5</v>
       </c>
       <c r="S10" t="n">
-        <v>35.5</v>
+        <v>6.6</v>
       </c>
       <c r="T10" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1171,57 +1139,54 @@
         <v>5.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>27.5</v>
       </c>
       <c r="F11" t="n">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="G11" t="n">
-        <v>38.5</v>
+        <v>39.9</v>
       </c>
       <c r="H11" t="n">
-        <v>39.9</v>
+        <v>53.6</v>
       </c>
       <c r="I11" t="n">
-        <v>53.6</v>
+        <v>57.9</v>
       </c>
       <c r="J11" t="n">
-        <v>57.9</v>
+        <v>93.8</v>
       </c>
       <c r="K11" t="n">
-        <v>93.8</v>
+        <v>99.8</v>
       </c>
       <c r="L11" t="n">
-        <v>99.8</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>15.1</v>
       </c>
       <c r="O11" t="n">
-        <v>15.1</v>
+        <v>26.1</v>
       </c>
       <c r="P11" t="n">
-        <v>26.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="R11" t="n">
-        <v>4.3</v>
+        <v>35.9</v>
       </c>
       <c r="S11" t="n">
-        <v>35.9</v>
+        <v>12.2</v>
       </c>
       <c r="T11" t="n">
-        <v>12.2</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1239,57 +1204,54 @@
         <v>4.6</v>
       </c>
       <c r="E12" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="P12" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.2</v>
-      </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>40.1</v>
       </c>
       <c r="S12" t="n">
-        <v>40.1</v>
+        <v>11.4</v>
       </c>
       <c r="T12" t="n">
-        <v>11.4</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1307,57 +1269,54 @@
         <v>1.8</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>26.3</v>
       </c>
       <c r="F13" t="n">
-        <v>26.3</v>
+        <v>36.1</v>
       </c>
       <c r="G13" t="n">
-        <v>36.1</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="I13" t="n">
-        <v>37.1</v>
+        <v>52.9</v>
       </c>
       <c r="J13" t="n">
-        <v>52.9</v>
+        <v>95.3</v>
       </c>
       <c r="K13" t="n">
-        <v>95.3</v>
+        <v>114.1</v>
       </c>
       <c r="L13" t="n">
-        <v>114.1</v>
+        <v>132.8</v>
       </c>
       <c r="M13" t="n">
-        <v>132.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>9.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>10.8</v>
       </c>
       <c r="P13" t="n">
-        <v>10.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9</v>
+        <v>15.8</v>
       </c>
       <c r="R13" t="n">
-        <v>15.8</v>
+        <v>42.4</v>
       </c>
       <c r="S13" t="n">
-        <v>42.4</v>
+        <v>18.7</v>
       </c>
       <c r="T13" t="n">
-        <v>18.7</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1375,57 +1334,54 @@
         <v>7.5</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>24.9</v>
       </c>
       <c r="F14" t="n">
-        <v>24.9</v>
+        <v>36</v>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>37.8</v>
       </c>
       <c r="H14" t="n">
-        <v>37.8</v>
+        <v>50.8</v>
       </c>
       <c r="I14" t="n">
-        <v>50.8</v>
+        <v>53.3</v>
       </c>
       <c r="J14" t="n">
-        <v>53.3</v>
+        <v>88.7</v>
       </c>
       <c r="K14" t="n">
-        <v>88.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>98.09999999999999</v>
+        <v>108</v>
       </c>
       <c r="M14" t="n">
-        <v>108</v>
+        <v>11.1</v>
       </c>
       <c r="N14" t="n">
-        <v>11.1</v>
+        <v>14.8</v>
       </c>
       <c r="O14" t="n">
-        <v>14.8</v>
+        <v>25.9</v>
       </c>
       <c r="P14" t="n">
-        <v>25.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>35.4</v>
       </c>
       <c r="S14" t="n">
-        <v>35.4</v>
+        <v>9.9</v>
       </c>
       <c r="T14" t="n">
-        <v>9.9</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1443,57 +1399,54 @@
         <v>4.3</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>25.1</v>
       </c>
       <c r="F15" t="n">
-        <v>25.1</v>
+        <v>37.1</v>
       </c>
       <c r="G15" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="H15" t="n">
-        <v>37.3</v>
+        <v>50.8</v>
       </c>
       <c r="I15" t="n">
-        <v>50.8</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>74.59999999999999</v>
+        <v>113.1</v>
       </c>
       <c r="K15" t="n">
-        <v>113.1</v>
+        <v>121.2</v>
       </c>
       <c r="L15" t="n">
-        <v>121.2</v>
+        <v>126.2</v>
       </c>
       <c r="M15" t="n">
-        <v>126.2</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>13.7</v>
       </c>
       <c r="O15" t="n">
-        <v>13.7</v>
+        <v>25.7</v>
       </c>
       <c r="P15" t="n">
-        <v>25.7</v>
+        <v>0.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2</v>
+        <v>23.8</v>
       </c>
       <c r="R15" t="n">
-        <v>23.8</v>
+        <v>38.5</v>
       </c>
       <c r="S15" t="n">
-        <v>38.5</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1511,57 +1464,54 @@
         <v>6.3</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>28.3</v>
       </c>
       <c r="F16" t="n">
-        <v>28.3</v>
+        <v>39.5</v>
       </c>
       <c r="G16" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>40</v>
+        <v>51.7</v>
       </c>
       <c r="I16" t="n">
-        <v>51.7</v>
+        <v>69.8</v>
       </c>
       <c r="J16" t="n">
-        <v>69.8</v>
+        <v>79.7</v>
       </c>
       <c r="K16" t="n">
-        <v>79.7</v>
+        <v>100.6</v>
       </c>
       <c r="L16" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="M16" t="n">
-        <v>100.7</v>
+        <v>11.2</v>
       </c>
       <c r="N16" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="O16" t="n">
-        <v>12.2</v>
+        <v>23.4</v>
       </c>
       <c r="P16" t="n">
-        <v>23.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5</v>
+        <v>18.1</v>
       </c>
       <c r="R16" t="n">
-        <v>18.1</v>
+        <v>9.9</v>
       </c>
       <c r="S16" t="n">
-        <v>9.9</v>
+        <v>0.1</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1579,57 +1529,54 @@
         <v>4.1</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>24.2</v>
       </c>
       <c r="F17" t="n">
-        <v>24.2</v>
+        <v>35.3</v>
       </c>
       <c r="G17" t="n">
-        <v>35.3</v>
+        <v>35.8</v>
       </c>
       <c r="H17" t="n">
-        <v>35.8</v>
+        <v>49.4</v>
       </c>
       <c r="I17" t="n">
-        <v>49.4</v>
+        <v>54.7</v>
       </c>
       <c r="J17" t="n">
-        <v>54.7</v>
+        <v>95.8</v>
       </c>
       <c r="K17" t="n">
-        <v>95.8</v>
+        <v>104.9</v>
       </c>
       <c r="L17" t="n">
-        <v>104.9</v>
+        <v>114.1</v>
       </c>
       <c r="M17" t="n">
-        <v>114.1</v>
+        <v>11.1</v>
       </c>
       <c r="N17" t="n">
-        <v>11.1</v>
+        <v>14.1</v>
       </c>
       <c r="O17" t="n">
-        <v>14.1</v>
+        <v>25.2</v>
       </c>
       <c r="P17" t="n">
-        <v>25.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="R17" t="n">
-        <v>5.3</v>
+        <v>41.1</v>
       </c>
       <c r="S17" t="n">
-        <v>41.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T17" t="n">
-        <v>9.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1647,57 +1594,54 @@
         <v>4.6</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>28.3</v>
       </c>
       <c r="F18" t="n">
-        <v>28.3</v>
+        <v>40.2</v>
       </c>
       <c r="G18" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="H18" t="n">
-        <v>40.4</v>
+        <v>55</v>
       </c>
       <c r="I18" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="J18" t="n">
-        <v>55.9</v>
+        <v>88.8</v>
       </c>
       <c r="K18" t="n">
-        <v>88.8</v>
+        <v>111.2</v>
       </c>
       <c r="L18" t="n">
-        <v>111.2</v>
+        <v>122.5</v>
       </c>
       <c r="M18" t="n">
-        <v>122.5</v>
+        <v>11.9</v>
       </c>
       <c r="N18" t="n">
-        <v>11.9</v>
+        <v>14.8</v>
       </c>
       <c r="O18" t="n">
-        <v>14.8</v>
+        <v>26.7</v>
       </c>
       <c r="P18" t="n">
-        <v>26.7</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9</v>
+        <v>32.9</v>
       </c>
       <c r="S18" t="n">
-        <v>32.9</v>
+        <v>11.3</v>
       </c>
       <c r="T18" t="n">
-        <v>11.3</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1715,57 +1659,54 @@
         <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>26.5</v>
       </c>
       <c r="F19" t="n">
-        <v>26.5</v>
+        <v>37.4</v>
       </c>
       <c r="G19" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="H19" t="n">
-        <v>37.6</v>
+        <v>50.3</v>
       </c>
       <c r="I19" t="n">
-        <v>50.3</v>
+        <v>53.7</v>
       </c>
       <c r="J19" t="n">
-        <v>53.7</v>
+        <v>92.3</v>
       </c>
       <c r="K19" t="n">
-        <v>92.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>97.09999999999999</v>
+        <v>108.9</v>
       </c>
       <c r="M19" t="n">
-        <v>108.9</v>
+        <v>10.9</v>
       </c>
       <c r="N19" t="n">
-        <v>10.9</v>
+        <v>12.9</v>
       </c>
       <c r="O19" t="n">
-        <v>12.9</v>
+        <v>23.8</v>
       </c>
       <c r="P19" t="n">
-        <v>23.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="R19" t="n">
-        <v>3.4</v>
+        <v>38.6</v>
       </c>
       <c r="S19" t="n">
-        <v>38.6</v>
+        <v>11.8</v>
       </c>
       <c r="T19" t="n">
-        <v>11.8</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1783,57 +1724,54 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>27.7</v>
       </c>
       <c r="F20" t="n">
-        <v>27.7</v>
+        <v>41.7</v>
       </c>
       <c r="G20" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="H20" t="n">
-        <v>41.9</v>
+        <v>57.7</v>
       </c>
       <c r="I20" t="n">
-        <v>57.7</v>
+        <v>60.3</v>
       </c>
       <c r="J20" t="n">
-        <v>60.3</v>
+        <v>105</v>
       </c>
       <c r="K20" t="n">
-        <v>105</v>
+        <v>112.1</v>
       </c>
       <c r="L20" t="n">
-        <v>112.1</v>
+        <v>133.4</v>
       </c>
       <c r="M20" t="n">
-        <v>133.4</v>
+        <v>14</v>
       </c>
       <c r="N20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O20" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P20" t="n">
-        <v>30</v>
+        <v>0.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="R20" t="n">
-        <v>2.6</v>
+        <v>44.7</v>
       </c>
       <c r="S20" t="n">
-        <v>44.7</v>
+        <v>21.3</v>
       </c>
       <c r="T20" t="n">
-        <v>21.3</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1851,57 +1789,54 @@
         <v>4.9</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>23.2</v>
       </c>
       <c r="F21" t="n">
-        <v>23.2</v>
+        <v>33.5</v>
       </c>
       <c r="G21" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="H21" t="n">
-        <v>33.6</v>
+        <v>45.3</v>
       </c>
       <c r="I21" t="n">
-        <v>45.3</v>
+        <v>53.8</v>
       </c>
       <c r="J21" t="n">
-        <v>53.8</v>
+        <v>68</v>
       </c>
       <c r="K21" t="n">
-        <v>68</v>
+        <v>96.5</v>
       </c>
       <c r="L21" t="n">
-        <v>96.5</v>
+        <v>106.4</v>
       </c>
       <c r="M21" t="n">
-        <v>106.4</v>
+        <v>10.3</v>
       </c>
       <c r="N21" t="n">
-        <v>10.3</v>
+        <v>11.8</v>
       </c>
       <c r="O21" t="n">
-        <v>11.8</v>
+        <v>22.1</v>
       </c>
       <c r="P21" t="n">
-        <v>22.1</v>
+        <v>0.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1</v>
+        <v>8.5</v>
       </c>
       <c r="R21" t="n">
-        <v>8.5</v>
+        <v>14.2</v>
       </c>
       <c r="S21" t="n">
-        <v>14.2</v>
+        <v>9.9</v>
       </c>
       <c r="T21" t="n">
-        <v>9.9</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1919,57 +1854,54 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>24.5</v>
       </c>
       <c r="F22" t="n">
-        <v>24.5</v>
+        <v>35.6</v>
       </c>
       <c r="G22" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="H22" t="n">
-        <v>35.9</v>
+        <v>48.9</v>
       </c>
       <c r="I22" t="n">
-        <v>48.9</v>
+        <v>65</v>
       </c>
       <c r="J22" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K22" t="n">
-        <v>72</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>90.09999999999999</v>
+        <v>105.5</v>
       </c>
       <c r="M22" t="n">
-        <v>105.5</v>
+        <v>11.1</v>
       </c>
       <c r="N22" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="O22" t="n">
-        <v>13.3</v>
+        <v>24.4</v>
       </c>
       <c r="P22" t="n">
-        <v>24.4</v>
+        <v>0.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3</v>
+        <v>16.1</v>
       </c>
       <c r="R22" t="n">
-        <v>16.1</v>
+        <v>7</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>15.4</v>
       </c>
       <c r="T22" t="n">
-        <v>15.4</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1987,57 +1919,54 @@
         <v>6.8</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>24.8</v>
       </c>
       <c r="F23" t="n">
-        <v>24.8</v>
+        <v>36.2</v>
       </c>
       <c r="G23" t="n">
         <v>36.2</v>
       </c>
       <c r="H23" t="n">
-        <v>36.2</v>
+        <v>49.6</v>
       </c>
       <c r="I23" t="n">
-        <v>49.6</v>
+        <v>51.5</v>
       </c>
       <c r="J23" t="n">
-        <v>51.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>89.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="L23" t="n">
-        <v>97.5</v>
+        <v>102</v>
       </c>
       <c r="M23" t="n">
-        <v>102</v>
+        <v>11.4</v>
       </c>
       <c r="N23" t="n">
-        <v>11.4</v>
+        <v>13.4</v>
       </c>
       <c r="O23" t="n">
-        <v>13.4</v>
+        <v>24.8</v>
       </c>
       <c r="P23" t="n">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9</v>
+        <v>37.6</v>
       </c>
       <c r="S23" t="n">
-        <v>37.6</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2055,57 +1984,54 @@
         <v>6.5</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>27.1</v>
       </c>
       <c r="F24" t="n">
-        <v>27.1</v>
+        <v>37.8</v>
       </c>
       <c r="G24" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="H24" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I24" t="n">
-        <v>50</v>
+        <v>52.8</v>
       </c>
       <c r="J24" t="n">
-        <v>52.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>78.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="L24" t="n">
-        <v>96.3</v>
+        <v>105</v>
       </c>
       <c r="M24" t="n">
-        <v>105</v>
+        <v>10.7</v>
       </c>
       <c r="N24" t="n">
-        <v>10.7</v>
+        <v>12.2</v>
       </c>
       <c r="O24" t="n">
-        <v>12.2</v>
+        <v>22.9</v>
       </c>
       <c r="P24" t="n">
-        <v>22.9</v>
+        <v>0.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="R24" t="n">
-        <v>2.8</v>
+        <v>25.6</v>
       </c>
       <c r="S24" t="n">
-        <v>25.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T24" t="n">
-        <v>8.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2123,57 +2049,54 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>28.5</v>
       </c>
       <c r="F25" t="n">
-        <v>28.5</v>
+        <v>40.4</v>
       </c>
       <c r="G25" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="H25" t="n">
-        <v>40.9</v>
+        <v>55.5</v>
       </c>
       <c r="I25" t="n">
-        <v>55.5</v>
+        <v>59.6</v>
       </c>
       <c r="J25" t="n">
-        <v>59.6</v>
+        <v>85</v>
       </c>
       <c r="K25" t="n">
-        <v>85</v>
+        <v>93.2</v>
       </c>
       <c r="L25" t="n">
-        <v>93.2</v>
+        <v>98</v>
       </c>
       <c r="M25" t="n">
-        <v>98</v>
+        <v>11.9</v>
       </c>
       <c r="N25" t="n">
-        <v>11.9</v>
+        <v>15.1</v>
       </c>
       <c r="O25" t="n">
-        <v>15.1</v>
+        <v>27</v>
       </c>
       <c r="P25" t="n">
-        <v>27</v>
+        <v>0.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="R25" t="n">
-        <v>4.1</v>
+        <v>25.4</v>
       </c>
       <c r="S25" t="n">
-        <v>25.4</v>
+        <v>4.8</v>
       </c>
       <c r="T25" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2191,57 +2114,54 @@
         <v>4.6</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>28.3</v>
       </c>
       <c r="F26" t="n">
-        <v>28.3</v>
+        <v>41.2</v>
       </c>
       <c r="G26" t="n">
-        <v>41.2</v>
+        <v>42</v>
       </c>
       <c r="H26" t="n">
         <v>42</v>
       </c>
       <c r="I26" t="n">
-        <v>42</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>87.40000000000001</v>
+        <v>104.5</v>
       </c>
       <c r="K26" t="n">
-        <v>104.5</v>
+        <v>113.7</v>
       </c>
       <c r="L26" t="n">
-        <v>113.7</v>
+        <v>117.5</v>
       </c>
       <c r="M26" t="n">
-        <v>117.5</v>
+        <v>12.9</v>
       </c>
       <c r="N26" t="n">
-        <v>12.9</v>
+        <v>0.8</v>
       </c>
       <c r="O26" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="P26" t="n">
         <v>0.8</v>
       </c>
-      <c r="P26" t="n">
-        <v>13.7</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0.8</v>
+        <v>45.4</v>
       </c>
       <c r="R26" t="n">
-        <v>45.4</v>
+        <v>17.1</v>
       </c>
       <c r="S26" t="n">
-        <v>17.1</v>
+        <v>3.8</v>
       </c>
       <c r="T26" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
-      </c>
-      <c r="V26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2259,57 +2179,54 @@
         <v>5.2</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>47.7</v>
       </c>
       <c r="G27" t="n">
-        <v>47.7</v>
+        <v>48.1</v>
       </c>
       <c r="H27" t="n">
-        <v>48.1</v>
+        <v>70.2</v>
       </c>
       <c r="I27" t="n">
-        <v>70.2</v>
+        <v>77.8</v>
       </c>
       <c r="J27" t="n">
-        <v>77.8</v>
+        <v>96.3</v>
       </c>
       <c r="K27" t="n">
-        <v>96.3</v>
+        <v>107.5</v>
       </c>
       <c r="L27" t="n">
-        <v>107.5</v>
+        <v>113.7</v>
       </c>
       <c r="M27" t="n">
-        <v>113.7</v>
+        <v>13.7</v>
       </c>
       <c r="N27" t="n">
-        <v>13.7</v>
+        <v>22.5</v>
       </c>
       <c r="O27" t="n">
-        <v>22.5</v>
+        <v>36.2</v>
       </c>
       <c r="P27" t="n">
-        <v>36.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4</v>
+        <v>7.6</v>
       </c>
       <c r="R27" t="n">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="S27" t="n">
-        <v>18.5</v>
+        <v>6.2</v>
       </c>
       <c r="T27" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2327,57 +2244,54 @@
         <v>7.6</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>31.4</v>
       </c>
       <c r="F28" t="n">
-        <v>31.4</v>
+        <v>43.8</v>
       </c>
       <c r="G28" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="H28" t="n">
-        <v>44</v>
+        <v>58.6</v>
       </c>
       <c r="I28" t="n">
-        <v>58.6</v>
+        <v>61.8</v>
       </c>
       <c r="J28" t="n">
-        <v>61.8</v>
+        <v>69.5</v>
       </c>
       <c r="K28" t="n">
-        <v>69.5</v>
+        <v>100.3</v>
       </c>
       <c r="L28" t="n">
-        <v>100.3</v>
+        <v>109</v>
       </c>
       <c r="M28" t="n">
-        <v>109</v>
+        <v>12.4</v>
       </c>
       <c r="N28" t="n">
-        <v>12.4</v>
+        <v>14.8</v>
       </c>
       <c r="O28" t="n">
-        <v>14.8</v>
+        <v>27.2</v>
       </c>
       <c r="P28" t="n">
-        <v>27.2</v>
+        <v>0.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="R28" t="n">
-        <v>3.2</v>
+        <v>7.7</v>
       </c>
       <c r="S28" t="n">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T28" t="n">
-        <v>8.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2395,57 +2309,54 @@
         <v>5.7</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="F29" t="n">
-        <v>23.7</v>
+        <v>34.3</v>
       </c>
       <c r="G29" t="n">
-        <v>34.3</v>
+        <v>36.6</v>
       </c>
       <c r="H29" t="n">
-        <v>36.6</v>
+        <v>49.1</v>
       </c>
       <c r="I29" t="n">
-        <v>49.1</v>
+        <v>50.7</v>
       </c>
       <c r="J29" t="n">
-        <v>50.7</v>
+        <v>89.5</v>
       </c>
       <c r="K29" t="n">
-        <v>89.5</v>
+        <v>101.3</v>
       </c>
       <c r="L29" t="n">
-        <v>101.3</v>
+        <v>110.4</v>
       </c>
       <c r="M29" t="n">
-        <v>110.4</v>
+        <v>10.6</v>
       </c>
       <c r="N29" t="n">
-        <v>10.6</v>
+        <v>14.8</v>
       </c>
       <c r="O29" t="n">
-        <v>14.8</v>
+        <v>25.4</v>
       </c>
       <c r="P29" t="n">
-        <v>25.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>38.8</v>
       </c>
       <c r="S29" t="n">
-        <v>38.8</v>
+        <v>9.1</v>
       </c>
       <c r="T29" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
-      </c>
-      <c r="V29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,57 +2374,54 @@
         <v>4.6</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>28.4</v>
       </c>
       <c r="F30" t="n">
-        <v>28.4</v>
+        <v>41.4</v>
       </c>
       <c r="G30" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="H30" t="n">
-        <v>41.5</v>
+        <v>54.8</v>
       </c>
       <c r="I30" t="n">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="J30" t="n">
-        <v>57.1</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>98.90000000000001</v>
+        <v>113.4</v>
       </c>
       <c r="L30" t="n">
-        <v>113.4</v>
+        <v>127.3</v>
       </c>
       <c r="M30" t="n">
-        <v>127.3</v>
+        <v>13</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="O30" t="n">
-        <v>13.4</v>
+        <v>26.4</v>
       </c>
       <c r="P30" t="n">
-        <v>26.4</v>
+        <v>0.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>41.8</v>
       </c>
       <c r="S30" t="n">
-        <v>41.8</v>
+        <v>13.9</v>
       </c>
       <c r="T30" t="n">
-        <v>13.9</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,57 +2439,54 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>23.1</v>
       </c>
       <c r="F31" t="n">
-        <v>23.1</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="H31" t="n">
-        <v>33.1</v>
+        <v>43.5</v>
       </c>
       <c r="I31" t="n">
-        <v>43.5</v>
+        <v>45.6</v>
       </c>
       <c r="J31" t="n">
-        <v>45.6</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>71.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="L31" t="n">
-        <v>83.8</v>
+        <v>93.3</v>
       </c>
       <c r="M31" t="n">
-        <v>93.3</v>
+        <v>9.9</v>
       </c>
       <c r="N31" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="O31" t="n">
-        <v>10.5</v>
+        <v>20.4</v>
       </c>
       <c r="P31" t="n">
-        <v>20.4</v>
+        <v>0.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>26</v>
       </c>
       <c r="S31" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="T31" t="n">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,57 +2504,54 @@
         <v>6.7</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="F32" t="n">
-        <v>27.9</v>
+        <v>38.8</v>
       </c>
       <c r="G32" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="H32" t="n">
-        <v>39.3</v>
+        <v>51</v>
       </c>
       <c r="I32" t="n">
-        <v>51</v>
+        <v>67.8</v>
       </c>
       <c r="J32" t="n">
-        <v>67.8</v>
+        <v>87.8</v>
       </c>
       <c r="K32" t="n">
-        <v>87.8</v>
+        <v>92.2</v>
       </c>
       <c r="L32" t="n">
-        <v>92.2</v>
+        <v>103.8</v>
       </c>
       <c r="M32" t="n">
-        <v>103.8</v>
+        <v>10.9</v>
       </c>
       <c r="N32" t="n">
-        <v>10.9</v>
+        <v>12.2</v>
       </c>
       <c r="O32" t="n">
-        <v>12.2</v>
+        <v>23.1</v>
       </c>
       <c r="P32" t="n">
-        <v>23.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5</v>
+        <v>16.8</v>
       </c>
       <c r="R32" t="n">
-        <v>16.8</v>
+        <v>20</v>
       </c>
       <c r="S32" t="n">
-        <v>20</v>
+        <v>11.6</v>
       </c>
       <c r="T32" t="n">
-        <v>11.6</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
-      </c>
-      <c r="V32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2667,57 +2569,54 @@
         <v>4.5</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>24.2</v>
       </c>
       <c r="F33" t="n">
-        <v>24.2</v>
+        <v>34.4</v>
       </c>
       <c r="G33" t="n">
-        <v>34.4</v>
+        <v>35.1</v>
       </c>
       <c r="H33" t="n">
-        <v>35.1</v>
+        <v>45.8</v>
       </c>
       <c r="I33" t="n">
-        <v>45.8</v>
+        <v>47.1</v>
       </c>
       <c r="J33" t="n">
-        <v>47.1</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>80.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="L33" t="n">
-        <v>100.2</v>
+        <v>111.5</v>
       </c>
       <c r="M33" t="n">
-        <v>111.5</v>
+        <v>10.2</v>
       </c>
       <c r="N33" t="n">
-        <v>10.2</v>
+        <v>11.4</v>
       </c>
       <c r="O33" t="n">
-        <v>11.4</v>
+        <v>21.6</v>
       </c>
       <c r="P33" t="n">
-        <v>21.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>33.8</v>
       </c>
       <c r="S33" t="n">
-        <v>33.8</v>
+        <v>11.3</v>
       </c>
       <c r="T33" t="n">
-        <v>11.3</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
-      </c>
-      <c r="V33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2735,57 +2634,54 @@
         <v>2.6</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>26.3</v>
       </c>
       <c r="F34" t="n">
-        <v>26.3</v>
+        <v>28.2</v>
       </c>
       <c r="G34" t="n">
-        <v>28.2</v>
+        <v>38.6</v>
       </c>
       <c r="H34" t="n">
-        <v>38.6</v>
+        <v>39.8</v>
       </c>
       <c r="I34" t="n">
-        <v>39.8</v>
+        <v>55.6</v>
       </c>
       <c r="J34" t="n">
-        <v>55.6</v>
+        <v>100.2</v>
       </c>
       <c r="K34" t="n">
-        <v>100.2</v>
+        <v>111.3</v>
       </c>
       <c r="L34" t="n">
-        <v>111.3</v>
+        <v>124.9</v>
       </c>
       <c r="M34" t="n">
-        <v>124.9</v>
+        <v>1.9</v>
       </c>
       <c r="N34" t="n">
-        <v>1.9</v>
+        <v>11.6</v>
       </c>
       <c r="O34" t="n">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="P34" t="n">
-        <v>13.5</v>
+        <v>10.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.4</v>
+        <v>15.8</v>
       </c>
       <c r="R34" t="n">
-        <v>15.8</v>
+        <v>44.6</v>
       </c>
       <c r="S34" t="n">
-        <v>44.6</v>
+        <v>13.6</v>
       </c>
       <c r="T34" t="n">
-        <v>13.6</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
-      </c>
-      <c r="V34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2803,57 +2699,54 @@
         <v>2.6</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F35" t="n">
-        <v>25</v>
+        <v>39.8</v>
       </c>
       <c r="G35" t="n">
-        <v>39.8</v>
+        <v>42.3</v>
       </c>
       <c r="H35" t="n">
-        <v>42.3</v>
+        <v>53</v>
       </c>
       <c r="I35" t="n">
-        <v>53</v>
+        <v>54.4</v>
       </c>
       <c r="J35" t="n">
-        <v>54.4</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>88.90000000000001</v>
+        <v>127.7</v>
       </c>
       <c r="L35" t="n">
-        <v>127.7</v>
+        <v>138.1</v>
       </c>
       <c r="M35" t="n">
-        <v>138.1</v>
+        <v>14.8</v>
       </c>
       <c r="N35" t="n">
-        <v>14.8</v>
+        <v>13.2</v>
       </c>
       <c r="O35" t="n">
-        <v>13.2</v>
+        <v>28</v>
       </c>
       <c r="P35" t="n">
-        <v>28</v>
+        <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>34.5</v>
       </c>
       <c r="S35" t="n">
-        <v>34.5</v>
+        <v>10.4</v>
       </c>
       <c r="T35" t="n">
-        <v>10.4</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
-      </c>
-      <c r="V35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2871,57 +2764,54 @@
         <v>6.4</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>24.6</v>
       </c>
       <c r="F36" t="n">
-        <v>24.6</v>
+        <v>36.3</v>
       </c>
       <c r="G36" t="n">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
       <c r="H36" t="n">
-        <v>36.7</v>
+        <v>49.6</v>
       </c>
       <c r="I36" t="n">
-        <v>49.6</v>
+        <v>53.2</v>
       </c>
       <c r="J36" t="n">
-        <v>53.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>81.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="L36" t="n">
-        <v>99.8</v>
+        <v>106.2</v>
       </c>
       <c r="M36" t="n">
-        <v>106.2</v>
+        <v>11.7</v>
       </c>
       <c r="N36" t="n">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="O36" t="n">
-        <v>13.3</v>
+        <v>25</v>
       </c>
       <c r="P36" t="n">
-        <v>25</v>
+        <v>0.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="R36" t="n">
-        <v>3.6</v>
+        <v>28.4</v>
       </c>
       <c r="S36" t="n">
-        <v>28.4</v>
+        <v>6.4</v>
       </c>
       <c r="T36" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
-      </c>
-      <c r="V36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2939,57 +2829,54 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>24.7</v>
       </c>
       <c r="F37" t="n">
-        <v>24.7</v>
+        <v>37.1</v>
       </c>
       <c r="G37" t="n">
         <v>37.1</v>
       </c>
       <c r="H37" t="n">
-        <v>37.1</v>
+        <v>49.1</v>
       </c>
       <c r="I37" t="n">
-        <v>49.1</v>
+        <v>50.1</v>
       </c>
       <c r="J37" t="n">
-        <v>50.1</v>
+        <v>113.9</v>
       </c>
       <c r="K37" t="n">
-        <v>113.9</v>
+        <v>120</v>
       </c>
       <c r="L37" t="n">
-        <v>120</v>
+        <v>134.5</v>
       </c>
       <c r="M37" t="n">
-        <v>134.5</v>
+        <v>12.4</v>
       </c>
       <c r="N37" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
-        <v>12</v>
+        <v>24.4</v>
       </c>
       <c r="P37" t="n">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>63.8</v>
       </c>
       <c r="S37" t="n">
-        <v>63.8</v>
+        <v>14.5</v>
       </c>
       <c r="T37" t="n">
-        <v>14.5</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
-      </c>
-      <c r="V37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3007,57 +2894,54 @@
         <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>23.8</v>
       </c>
       <c r="F38" t="n">
-        <v>23.8</v>
+        <v>33.8</v>
       </c>
       <c r="G38" t="n">
-        <v>33.8</v>
+        <v>34.3</v>
       </c>
       <c r="H38" t="n">
-        <v>34.3</v>
+        <v>44.6</v>
       </c>
       <c r="I38" t="n">
-        <v>44.6</v>
+        <v>46</v>
       </c>
       <c r="J38" t="n">
-        <v>46</v>
+        <v>96.8</v>
       </c>
       <c r="K38" t="n">
-        <v>96.8</v>
+        <v>102.7</v>
       </c>
       <c r="L38" t="n">
-        <v>102.7</v>
+        <v>112.5</v>
       </c>
       <c r="M38" t="n">
-        <v>112.5</v>
+        <v>10</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="O38" t="n">
-        <v>10.8</v>
+        <v>20.8</v>
       </c>
       <c r="P38" t="n">
-        <v>20.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.4</v>
+        <v>50.8</v>
       </c>
       <c r="S38" t="n">
-        <v>50.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T38" t="n">
-        <v>9.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3075,57 +2959,54 @@
         <v>8.6</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>22.6</v>
       </c>
       <c r="F39" t="n">
-        <v>22.6</v>
+        <v>33</v>
       </c>
       <c r="G39" t="n">
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="H39" t="n">
-        <v>34.5</v>
+        <v>43.2</v>
       </c>
       <c r="I39" t="n">
-        <v>43.2</v>
+        <v>47.6</v>
       </c>
       <c r="J39" t="n">
-        <v>47.6</v>
+        <v>88.5</v>
       </c>
       <c r="K39" t="n">
-        <v>88.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>96.09999999999999</v>
+        <v>102.5</v>
       </c>
       <c r="M39" t="n">
-        <v>102.5</v>
+        <v>10.4</v>
       </c>
       <c r="N39" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="O39" t="n">
-        <v>10.2</v>
+        <v>20.6</v>
       </c>
       <c r="P39" t="n">
-        <v>20.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="R39" t="n">
-        <v>4.4</v>
+        <v>40.9</v>
       </c>
       <c r="S39" t="n">
-        <v>40.9</v>
+        <v>6.4</v>
       </c>
       <c r="T39" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
-      </c>
-      <c r="V39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,57 +3024,54 @@
         <v>6.1</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F40" t="n">
-        <v>23</v>
+        <v>33.4</v>
       </c>
       <c r="G40" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="H40" t="n">
-        <v>33.6</v>
+        <v>48.8</v>
       </c>
       <c r="I40" t="n">
-        <v>48.8</v>
+        <v>49.6</v>
       </c>
       <c r="J40" t="n">
-        <v>49.6</v>
+        <v>86.3</v>
       </c>
       <c r="K40" t="n">
-        <v>86.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="L40" t="n">
-        <v>94.09999999999999</v>
+        <v>106.5</v>
       </c>
       <c r="M40" t="n">
-        <v>106.5</v>
+        <v>10.4</v>
       </c>
       <c r="N40" t="n">
-        <v>10.4</v>
+        <v>15.4</v>
       </c>
       <c r="O40" t="n">
-        <v>15.4</v>
+        <v>25.8</v>
       </c>
       <c r="P40" t="n">
-        <v>25.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8</v>
+        <v>36.7</v>
       </c>
       <c r="S40" t="n">
-        <v>36.7</v>
+        <v>12.4</v>
       </c>
       <c r="T40" t="n">
-        <v>12.4</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
-      </c>
-      <c r="V40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3211,57 +3089,54 @@
         <v>3.4</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F41" t="n">
-        <v>26</v>
+        <v>37.4</v>
       </c>
       <c r="G41" t="n">
         <v>37.4</v>
       </c>
       <c r="H41" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="I41" t="n">
-        <v>37.5</v>
+        <v>59.5</v>
       </c>
       <c r="J41" t="n">
-        <v>59.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>85.59999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="L41" t="n">
-        <v>101.4</v>
+        <v>112.3</v>
       </c>
       <c r="M41" t="n">
-        <v>112.3</v>
+        <v>11.4</v>
       </c>
       <c r="N41" t="n">
-        <v>11.4</v>
+        <v>0.1</v>
       </c>
       <c r="O41" t="n">
-        <v>0.1</v>
+        <v>11.5</v>
       </c>
       <c r="P41" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R41" t="n">
-        <v>22</v>
+        <v>26.1</v>
       </c>
       <c r="S41" t="n">
-        <v>26.1</v>
+        <v>10.9</v>
       </c>
       <c r="T41" t="n">
-        <v>10.9</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
-      </c>
-      <c r="V41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3279,58 +3154,55 @@
         <v>4.3</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>26.4</v>
       </c>
       <c r="F42" t="n">
-        <v>26.4</v>
+        <v>28.5</v>
       </c>
       <c r="G42" t="n">
-        <v>28.5</v>
+        <v>38.1</v>
       </c>
       <c r="H42" t="n">
-        <v>38.1</v>
+        <v>39.1</v>
       </c>
       <c r="I42" t="n">
-        <v>39.1</v>
+        <v>55</v>
       </c>
       <c r="J42" t="n">
-        <v>55</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>91.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="L42" t="n">
-        <v>98.59999999999999</v>
+        <v>114.5</v>
       </c>
       <c r="M42" t="n">
-        <v>114.5</v>
+        <v>2.1</v>
       </c>
       <c r="N42" t="n">
-        <v>2.1</v>
+        <v>10.6</v>
       </c>
       <c r="O42" t="n">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
       <c r="P42" t="n">
-        <v>12.7</v>
+        <v>9.6</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.6</v>
+        <v>15.9</v>
       </c>
       <c r="R42" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="S42" t="n">
         <v>15.9</v>
       </c>
-      <c r="S42" t="n">
-        <v>36.4</v>
-      </c>
       <c r="T42" t="n">
-        <v>15.9</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>1</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3347,57 +3219,54 @@
         <v>3.1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>25.6</v>
       </c>
       <c r="F43" t="n">
-        <v>25.6</v>
+        <v>37.6</v>
       </c>
       <c r="G43" t="n">
         <v>37.6</v>
       </c>
       <c r="H43" t="n">
-        <v>37.6</v>
+        <v>51.5</v>
       </c>
       <c r="I43" t="n">
-        <v>51.5</v>
+        <v>58</v>
       </c>
       <c r="J43" t="n">
-        <v>58</v>
+        <v>106.1</v>
       </c>
       <c r="K43" t="n">
-        <v>106.1</v>
+        <v>118.5</v>
       </c>
       <c r="L43" t="n">
-        <v>118.5</v>
+        <v>129</v>
       </c>
       <c r="M43" t="n">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="N43" t="n">
-        <v>12</v>
+        <v>13.9</v>
       </c>
       <c r="O43" t="n">
-        <v>13.9</v>
+        <v>25.9</v>
       </c>
       <c r="P43" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="R43" t="n">
-        <v>6.5</v>
+        <v>48.1</v>
       </c>
       <c r="S43" t="n">
-        <v>48.1</v>
+        <v>10.5</v>
       </c>
       <c r="T43" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3415,57 +3284,54 @@
         <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>23.4</v>
       </c>
       <c r="F44" t="n">
-        <v>23.4</v>
+        <v>35.2</v>
       </c>
       <c r="G44" t="n">
-        <v>35.2</v>
+        <v>35.7</v>
       </c>
       <c r="H44" t="n">
-        <v>35.7</v>
+        <v>49.9</v>
       </c>
       <c r="I44" t="n">
-        <v>49.9</v>
+        <v>57.4</v>
       </c>
       <c r="J44" t="n">
-        <v>57.4</v>
+        <v>101.6</v>
       </c>
       <c r="K44" t="n">
-        <v>101.6</v>
+        <v>114.9</v>
       </c>
       <c r="L44" t="n">
-        <v>114.9</v>
+        <v>118.4</v>
       </c>
       <c r="M44" t="n">
-        <v>118.4</v>
+        <v>11.8</v>
       </c>
       <c r="N44" t="n">
-        <v>11.8</v>
+        <v>14.7</v>
       </c>
       <c r="O44" t="n">
-        <v>14.7</v>
+        <v>26.5</v>
       </c>
       <c r="P44" t="n">
-        <v>26.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="R44" t="n">
-        <v>7.5</v>
+        <v>44.2</v>
       </c>
       <c r="S44" t="n">
-        <v>44.2</v>
+        <v>3.5</v>
       </c>
       <c r="T44" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3483,57 +3349,54 @@
         <v>4.6</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>23.5</v>
       </c>
       <c r="F45" t="n">
-        <v>23.5</v>
+        <v>33.6</v>
       </c>
       <c r="G45" t="n">
-        <v>33.6</v>
+        <v>35.2</v>
       </c>
       <c r="H45" t="n">
-        <v>35.2</v>
+        <v>49.7</v>
       </c>
       <c r="I45" t="n">
-        <v>49.7</v>
+        <v>61.9</v>
       </c>
       <c r="J45" t="n">
-        <v>61.9</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>88.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="L45" t="n">
-        <v>94.40000000000001</v>
+        <v>107</v>
       </c>
       <c r="M45" t="n">
-        <v>107</v>
+        <v>10.1</v>
       </c>
       <c r="N45" t="n">
-        <v>10.1</v>
+        <v>16.1</v>
       </c>
       <c r="O45" t="n">
-        <v>16.1</v>
+        <v>26.2</v>
       </c>
       <c r="P45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="R45" t="n">
         <v>26.2</v>
       </c>
-      <c r="Q45" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R45" t="n">
-        <v>12.2</v>
-      </c>
       <c r="S45" t="n">
-        <v>26.2</v>
+        <v>12.6</v>
       </c>
       <c r="T45" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3551,57 +3414,54 @@
         <v>5.4</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>25.5</v>
       </c>
       <c r="F46" t="n">
-        <v>25.5</v>
+        <v>37.9</v>
       </c>
       <c r="G46" t="n">
-        <v>37.9</v>
+        <v>38.5</v>
       </c>
       <c r="H46" t="n">
-        <v>38.5</v>
+        <v>53</v>
       </c>
       <c r="I46" t="n">
-        <v>53</v>
+        <v>56.9</v>
       </c>
       <c r="J46" t="n">
-        <v>56.9</v>
+        <v>98</v>
       </c>
       <c r="K46" t="n">
-        <v>98</v>
+        <v>109.7</v>
       </c>
       <c r="L46" t="n">
-        <v>109.7</v>
+        <v>114.1</v>
       </c>
       <c r="M46" t="n">
-        <v>114.1</v>
+        <v>12.4</v>
       </c>
       <c r="N46" t="n">
-        <v>12.4</v>
+        <v>15.1</v>
       </c>
       <c r="O46" t="n">
-        <v>15.1</v>
+        <v>27.5</v>
       </c>
       <c r="P46" t="n">
-        <v>27.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="R46" t="n">
-        <v>3.9</v>
+        <v>41.1</v>
       </c>
       <c r="S46" t="n">
-        <v>41.1</v>
+        <v>4.4</v>
       </c>
       <c r="T46" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3619,57 +3479,54 @@
         <v>4.4</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>24.7</v>
       </c>
       <c r="F47" t="n">
-        <v>24.7</v>
+        <v>37</v>
       </c>
       <c r="G47" t="n">
         <v>37</v>
       </c>
       <c r="H47" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="I47" t="n">
-        <v>37.1</v>
+        <v>51.3</v>
       </c>
       <c r="J47" t="n">
-        <v>51.3</v>
+        <v>73.2</v>
       </c>
       <c r="K47" t="n">
-        <v>73.2</v>
+        <v>113.9</v>
       </c>
       <c r="L47" t="n">
-        <v>113.9</v>
+        <v>118.7</v>
       </c>
       <c r="M47" t="n">
-        <v>118.7</v>
+        <v>12.3</v>
       </c>
       <c r="N47" t="n">
-        <v>12.3</v>
+        <v>0.1</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1</v>
+        <v>12.4</v>
       </c>
       <c r="P47" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="R47" t="n">
-        <v>14.2</v>
+        <v>21.9</v>
       </c>
       <c r="S47" t="n">
-        <v>21.9</v>
+        <v>4.8</v>
       </c>
       <c r="T47" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,57 +3544,54 @@
         <v>5.8</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>23.5</v>
       </c>
       <c r="F48" t="n">
-        <v>23.5</v>
+        <v>36.6</v>
       </c>
       <c r="G48" t="n">
-        <v>36.6</v>
+        <v>37.5</v>
       </c>
       <c r="H48" t="n">
-        <v>37.5</v>
+        <v>49.6</v>
       </c>
       <c r="I48" t="n">
-        <v>49.6</v>
+        <v>57.6</v>
       </c>
       <c r="J48" t="n">
-        <v>57.6</v>
+        <v>89.7</v>
       </c>
       <c r="K48" t="n">
-        <v>89.7</v>
+        <v>107.4</v>
       </c>
       <c r="L48" t="n">
-        <v>107.4</v>
+        <v>113</v>
       </c>
       <c r="M48" t="n">
-        <v>113</v>
+        <v>13.1</v>
       </c>
       <c r="N48" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
-        <v>13</v>
+        <v>26.1</v>
       </c>
       <c r="P48" t="n">
-        <v>26.1</v>
+        <v>0.9</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="R48" t="n">
-        <v>8</v>
+        <v>32.1</v>
       </c>
       <c r="S48" t="n">
-        <v>32.1</v>
+        <v>5.6</v>
       </c>
       <c r="T48" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3755,57 +3609,54 @@
         <v>6.7</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>24.2</v>
       </c>
       <c r="F49" t="n">
-        <v>24.2</v>
+        <v>36.8</v>
       </c>
       <c r="G49" t="n">
-        <v>36.8</v>
+        <v>37.6</v>
       </c>
       <c r="H49" t="n">
-        <v>37.6</v>
+        <v>49.7</v>
       </c>
       <c r="I49" t="n">
-        <v>49.7</v>
+        <v>51.8</v>
       </c>
       <c r="J49" t="n">
-        <v>51.8</v>
+        <v>77.3</v>
       </c>
       <c r="K49" t="n">
-        <v>77.3</v>
+        <v>98.8</v>
       </c>
       <c r="L49" t="n">
-        <v>98.8</v>
+        <v>104.1</v>
       </c>
       <c r="M49" t="n">
-        <v>104.1</v>
+        <v>12.6</v>
       </c>
       <c r="N49" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="O49" t="n">
-        <v>12.9</v>
+        <v>25.5</v>
       </c>
       <c r="P49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R49" t="n">
         <v>25.5</v>
       </c>
-      <c r="Q49" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S49" t="n">
-        <v>25.5</v>
+        <v>5.3</v>
       </c>
       <c r="T49" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3823,57 +3674,54 @@
         <v>3.5</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>25.2</v>
       </c>
       <c r="F50" t="n">
-        <v>25.2</v>
+        <v>38.1</v>
       </c>
       <c r="G50" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="H50" t="n">
-        <v>38.3</v>
+        <v>39.1</v>
       </c>
       <c r="I50" t="n">
-        <v>39.1</v>
+        <v>56.1</v>
       </c>
       <c r="J50" t="n">
-        <v>56.1</v>
+        <v>88.5</v>
       </c>
       <c r="K50" t="n">
-        <v>88.5</v>
+        <v>104.7</v>
       </c>
       <c r="L50" t="n">
-        <v>104.7</v>
+        <v>118.2</v>
       </c>
       <c r="M50" t="n">
-        <v>118.2</v>
+        <v>12.9</v>
       </c>
       <c r="N50" t="n">
-        <v>12.9</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>13.9</v>
       </c>
       <c r="P50" t="n">
-        <v>13.9</v>
+        <v>0.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
       <c r="R50" t="n">
-        <v>17</v>
+        <v>32.4</v>
       </c>
       <c r="S50" t="n">
-        <v>32.4</v>
+        <v>13.5</v>
       </c>
       <c r="T50" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3891,57 +3739,54 @@
         <v>8.199999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>24.4</v>
       </c>
       <c r="F51" t="n">
-        <v>24.4</v>
+        <v>35.7</v>
       </c>
       <c r="G51" t="n">
-        <v>35.7</v>
+        <v>36.2</v>
       </c>
       <c r="H51" t="n">
-        <v>36.2</v>
+        <v>46.5</v>
       </c>
       <c r="I51" t="n">
-        <v>46.5</v>
+        <v>49.8</v>
       </c>
       <c r="J51" t="n">
-        <v>49.8</v>
+        <v>92.2</v>
       </c>
       <c r="K51" t="n">
-        <v>92.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>96.90000000000001</v>
+        <v>105.8</v>
       </c>
       <c r="M51" t="n">
-        <v>105.8</v>
+        <v>11.3</v>
       </c>
       <c r="N51" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="O51" t="n">
-        <v>10.8</v>
+        <v>22.1</v>
       </c>
       <c r="P51" t="n">
-        <v>22.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="R51" t="n">
-        <v>3.3</v>
+        <v>42.4</v>
       </c>
       <c r="S51" t="n">
-        <v>42.4</v>
+        <v>8.9</v>
       </c>
       <c r="T51" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3959,57 +3804,54 @@
         <v>6.1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>25.3</v>
       </c>
       <c r="F52" t="n">
-        <v>25.3</v>
+        <v>35</v>
       </c>
       <c r="G52" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="H52" t="n">
-        <v>35.3</v>
+        <v>36.5</v>
       </c>
       <c r="I52" t="n">
-        <v>36.5</v>
+        <v>47.4</v>
       </c>
       <c r="J52" t="n">
-        <v>47.4</v>
+        <v>86.7</v>
       </c>
       <c r="K52" t="n">
-        <v>86.7</v>
+        <v>96.2</v>
       </c>
       <c r="L52" t="n">
-        <v>96.2</v>
+        <v>104</v>
       </c>
       <c r="M52" t="n">
-        <v>104</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N52" t="n">
-        <v>9.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.5</v>
+        <v>11.2</v>
       </c>
       <c r="P52" t="n">
-        <v>11.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3</v>
+        <v>10.9</v>
       </c>
       <c r="R52" t="n">
-        <v>10.9</v>
+        <v>39.3</v>
       </c>
       <c r="S52" t="n">
-        <v>39.3</v>
+        <v>7.8</v>
       </c>
       <c r="T52" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4027,57 +3869,54 @@
         <v>4.2</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="F53" t="n">
-        <v>25.8</v>
+        <v>36.8</v>
       </c>
       <c r="G53" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="H53" t="n">
-        <v>37</v>
+        <v>37.8</v>
       </c>
       <c r="I53" t="n">
-        <v>37.8</v>
+        <v>52.4</v>
       </c>
       <c r="J53" t="n">
-        <v>52.4</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>91.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>98.40000000000001</v>
+        <v>108.6</v>
       </c>
       <c r="M53" t="n">
-        <v>108.6</v>
+        <v>11</v>
       </c>
       <c r="N53" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P53" t="n">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.2</v>
+        <v>14.6</v>
       </c>
       <c r="R53" t="n">
-        <v>14.6</v>
+        <v>39.2</v>
       </c>
       <c r="S53" t="n">
-        <v>39.2</v>
+        <v>10.2</v>
       </c>
       <c r="T53" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4095,57 +3934,54 @@
         <v>3.3</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>27.8</v>
       </c>
       <c r="F54" t="n">
-        <v>27.8</v>
+        <v>39.1</v>
       </c>
       <c r="G54" t="n">
-        <v>39.1</v>
+        <v>40.7</v>
       </c>
       <c r="H54" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="I54" t="n">
-        <v>40.8</v>
+        <v>53.1</v>
       </c>
       <c r="J54" t="n">
-        <v>53.1</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>91.59999999999999</v>
+        <v>105.1</v>
       </c>
       <c r="L54" t="n">
-        <v>105.1</v>
+        <v>121.3</v>
       </c>
       <c r="M54" t="n">
-        <v>121.3</v>
+        <v>11.3</v>
       </c>
       <c r="N54" t="n">
-        <v>11.3</v>
+        <v>1.7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.7</v>
+        <v>13</v>
       </c>
       <c r="P54" t="n">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.6</v>
+        <v>12.3</v>
       </c>
       <c r="R54" t="n">
-        <v>12.3</v>
+        <v>38.5</v>
       </c>
       <c r="S54" t="n">
-        <v>38.5</v>
+        <v>16.2</v>
       </c>
       <c r="T54" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4163,57 +3999,54 @@
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="F55" t="n">
-        <v>20.4</v>
+        <v>23</v>
       </c>
       <c r="G55" t="n">
-        <v>23</v>
+        <v>31.2</v>
       </c>
       <c r="H55" t="n">
-        <v>31.2</v>
+        <v>33.2</v>
       </c>
       <c r="I55" t="n">
-        <v>33.2</v>
+        <v>45.7</v>
       </c>
       <c r="J55" t="n">
-        <v>45.7</v>
+        <v>79.3</v>
       </c>
       <c r="K55" t="n">
-        <v>79.3</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="L55" t="n">
-        <v>88.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="M55" t="n">
-        <v>95.8</v>
+        <v>2.6</v>
       </c>
       <c r="N55" t="n">
-        <v>2.6</v>
+        <v>10.2</v>
       </c>
       <c r="O55" t="n">
-        <v>10.2</v>
+        <v>12.8</v>
       </c>
       <c r="P55" t="n">
-        <v>12.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q55" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="R55" t="n">
-        <v>12.5</v>
+        <v>33.6</v>
       </c>
       <c r="S55" t="n">
-        <v>33.6</v>
+        <v>7.4</v>
       </c>
       <c r="T55" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4231,57 +4064,54 @@
         <v>6.9</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>24.2</v>
       </c>
       <c r="F56" t="n">
-        <v>24.2</v>
+        <v>34.5</v>
       </c>
       <c r="G56" t="n">
-        <v>34.5</v>
+        <v>41</v>
       </c>
       <c r="H56" t="n">
-        <v>41</v>
+        <v>47.1</v>
       </c>
       <c r="I56" t="n">
-        <v>47.1</v>
+        <v>55.1</v>
       </c>
       <c r="J56" t="n">
-        <v>55.1</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>78.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="L56" t="n">
-        <v>94.59999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="M56" t="n">
-        <v>101.1</v>
+        <v>10.3</v>
       </c>
       <c r="N56" t="n">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="O56" t="n">
-        <v>12.6</v>
+        <v>22.9</v>
       </c>
       <c r="P56" t="n">
-        <v>22.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q56" t="n">
+        <v>8</v>
+      </c>
+      <c r="R56" t="n">
+        <v>23</v>
+      </c>
+      <c r="S56" t="n">
         <v>6.5</v>
       </c>
-      <c r="R56" t="n">
-        <v>8</v>
-      </c>
-      <c r="S56" t="n">
-        <v>23</v>
-      </c>
       <c r="T56" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4299,57 +4129,54 @@
         <v>5.8</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="F57" t="n">
-        <v>21.9</v>
+        <v>23.7</v>
       </c>
       <c r="G57" t="n">
-        <v>23.7</v>
+        <v>31.2</v>
       </c>
       <c r="H57" t="n">
-        <v>31.2</v>
+        <v>32.4</v>
       </c>
       <c r="I57" t="n">
-        <v>32.4</v>
+        <v>49</v>
       </c>
       <c r="J57" t="n">
-        <v>49</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>82.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="L57" t="n">
-        <v>89.7</v>
+        <v>99.5</v>
       </c>
       <c r="M57" t="n">
-        <v>99.5</v>
+        <v>1.8</v>
       </c>
       <c r="N57" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O57" t="n">
-        <v>8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="P57" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>7.5</v>
+        <v>16.6</v>
       </c>
       <c r="R57" t="n">
-        <v>16.6</v>
+        <v>33.4</v>
       </c>
       <c r="S57" t="n">
-        <v>33.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T57" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4367,57 +4194,54 @@
         <v>4.3</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="F58" t="n">
-        <v>19.6</v>
+        <v>22.1</v>
       </c>
       <c r="G58" t="n">
-        <v>22.1</v>
+        <v>31.3</v>
       </c>
       <c r="H58" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="I58" t="n">
-        <v>31.6</v>
+        <v>50</v>
       </c>
       <c r="J58" t="n">
-        <v>50</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>84.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>97.40000000000001</v>
+        <v>102.5</v>
       </c>
       <c r="M58" t="n">
-        <v>102.5</v>
+        <v>2.5</v>
       </c>
       <c r="N58" t="n">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O58" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="P58" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q58" t="n">
-        <v>9.199999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="R58" t="n">
-        <v>18.4</v>
+        <v>34.9</v>
       </c>
       <c r="S58" t="n">
-        <v>34.9</v>
+        <v>5.1</v>
       </c>
       <c r="T58" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4435,57 +4259,54 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>20.8</v>
       </c>
       <c r="F59" t="n">
-        <v>20.8</v>
+        <v>30.6</v>
       </c>
       <c r="G59" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="H59" t="n">
-        <v>30.8</v>
+        <v>32.7</v>
       </c>
       <c r="I59" t="n">
-        <v>32.7</v>
+        <v>44.6</v>
       </c>
       <c r="J59" t="n">
-        <v>44.6</v>
+        <v>80.3</v>
       </c>
       <c r="K59" t="n">
-        <v>80.3</v>
+        <v>87.2</v>
       </c>
       <c r="L59" t="n">
-        <v>87.2</v>
+        <v>95.2</v>
       </c>
       <c r="M59" t="n">
-        <v>95.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N59" t="n">
-        <v>9.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="O59" t="n">
-        <v>2.1</v>
+        <v>11.9</v>
       </c>
       <c r="P59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q59" t="n">
         <v>11.9</v>
       </c>
-      <c r="Q59" t="n">
-        <v>0.2</v>
-      </c>
       <c r="R59" t="n">
-        <v>11.9</v>
+        <v>35.7</v>
       </c>
       <c r="S59" t="n">
-        <v>35.7</v>
+        <v>8</v>
       </c>
       <c r="T59" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4503,57 +4324,54 @@
         <v>5.6</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>21.9</v>
       </c>
       <c r="F60" t="n">
-        <v>21.9</v>
+        <v>32.1</v>
       </c>
       <c r="G60" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="H60" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="I60" t="n">
-        <v>32.7</v>
+        <v>56.7</v>
       </c>
       <c r="J60" t="n">
-        <v>56.7</v>
+        <v>71.5</v>
       </c>
       <c r="K60" t="n">
-        <v>71.5</v>
+        <v>88.2</v>
       </c>
       <c r="L60" t="n">
-        <v>88.2</v>
+        <v>94.3</v>
       </c>
       <c r="M60" t="n">
-        <v>94.3</v>
+        <v>10.2</v>
       </c>
       <c r="N60" t="n">
-        <v>10.2</v>
+        <v>0.6</v>
       </c>
       <c r="O60" t="n">
-        <v>0.6</v>
+        <v>10.8</v>
       </c>
       <c r="P60" t="n">
-        <v>10.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.4</v>
+        <v>24</v>
       </c>
       <c r="R60" t="n">
-        <v>24</v>
+        <v>14.8</v>
       </c>
       <c r="S60" t="n">
-        <v>14.8</v>
+        <v>6.1</v>
       </c>
       <c r="T60" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,57 +4389,54 @@
         <v>9.199999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>24.6</v>
       </c>
       <c r="F61" t="n">
-        <v>24.6</v>
+        <v>34.6</v>
       </c>
       <c r="G61" t="n">
         <v>34.6</v>
       </c>
       <c r="H61" t="n">
-        <v>34.6</v>
+        <v>46.5</v>
       </c>
       <c r="I61" t="n">
-        <v>46.5</v>
+        <v>58.8</v>
       </c>
       <c r="J61" t="n">
-        <v>58.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>82.40000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="L61" t="n">
-        <v>87.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="M61" t="n">
-        <v>95.40000000000001</v>
+        <v>10</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>11.9</v>
       </c>
       <c r="O61" t="n">
-        <v>11.9</v>
+        <v>21.9</v>
       </c>
       <c r="P61" t="n">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="R61" t="n">
-        <v>12.3</v>
+        <v>23.6</v>
       </c>
       <c r="S61" t="n">
-        <v>23.6</v>
+        <v>7.6</v>
       </c>
       <c r="T61" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4639,57 +4454,54 @@
         <v>8.4</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>26.8</v>
       </c>
       <c r="F62" t="n">
-        <v>26.8</v>
+        <v>38.6</v>
       </c>
       <c r="G62" t="n">
-        <v>38.6</v>
+        <v>39</v>
       </c>
       <c r="H62" t="n">
-        <v>39</v>
+        <v>51.1</v>
       </c>
       <c r="I62" t="n">
-        <v>51.1</v>
+        <v>53.3</v>
       </c>
       <c r="J62" t="n">
-        <v>53.3</v>
+        <v>91.7</v>
       </c>
       <c r="K62" t="n">
-        <v>91.7</v>
+        <v>97</v>
       </c>
       <c r="L62" t="n">
-        <v>97</v>
+        <v>102.9</v>
       </c>
       <c r="M62" t="n">
-        <v>102.9</v>
+        <v>11.8</v>
       </c>
       <c r="N62" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="O62" t="n">
-        <v>12.5</v>
+        <v>24.3</v>
       </c>
       <c r="P62" t="n">
-        <v>24.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>2.2</v>
+        <v>38.4</v>
       </c>
       <c r="S62" t="n">
-        <v>38.4</v>
+        <v>5.9</v>
       </c>
       <c r="T62" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4707,57 +4519,54 @@
         <v>5.8</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>21.2</v>
       </c>
       <c r="F63" t="n">
-        <v>21.2</v>
+        <v>31.4</v>
       </c>
       <c r="G63" t="n">
         <v>31.4</v>
       </c>
       <c r="H63" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="I63" t="n">
-        <v>31.6</v>
+        <v>45.9</v>
       </c>
       <c r="J63" t="n">
-        <v>45.9</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>86.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="L63" t="n">
-        <v>96.8</v>
+        <v>105</v>
       </c>
       <c r="M63" t="n">
-        <v>105</v>
+        <v>10.2</v>
       </c>
       <c r="N63" t="n">
-        <v>10.2</v>
+        <v>0.2</v>
       </c>
       <c r="O63" t="n">
-        <v>0.2</v>
+        <v>10.4</v>
       </c>
       <c r="P63" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="R63" t="n">
-        <v>14.3</v>
+        <v>40.7</v>
       </c>
       <c r="S63" t="n">
-        <v>40.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T63" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4775,57 +4584,54 @@
         <v>3.6</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>31.2</v>
       </c>
       <c r="F64" t="n">
-        <v>31.2</v>
+        <v>42.4</v>
       </c>
       <c r="G64" t="n">
-        <v>42.4</v>
+        <v>42.8</v>
       </c>
       <c r="H64" t="n">
-        <v>42.8</v>
+        <v>60</v>
       </c>
       <c r="I64" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J64" t="n">
-        <v>84</v>
+        <v>101.6</v>
       </c>
       <c r="K64" t="n">
-        <v>101.6</v>
+        <v>108.4</v>
       </c>
       <c r="L64" t="n">
-        <v>108.4</v>
+        <v>112.6</v>
       </c>
       <c r="M64" t="n">
-        <v>112.6</v>
+        <v>11.2</v>
       </c>
       <c r="N64" t="n">
-        <v>11.2</v>
+        <v>17.6</v>
       </c>
       <c r="O64" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>24</v>
+      </c>
+      <c r="R64" t="n">
         <v>17.6</v>
       </c>
-      <c r="P64" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R64" t="n">
-        <v>24</v>
-      </c>
       <c r="S64" t="n">
-        <v>17.6</v>
+        <v>4.2</v>
       </c>
       <c r="T64" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4843,57 +4649,54 @@
         <v>5.6</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>23.5</v>
       </c>
       <c r="F65" t="n">
-        <v>23.5</v>
+        <v>37.4</v>
       </c>
       <c r="G65" t="n">
-        <v>37.4</v>
+        <v>38.1</v>
       </c>
       <c r="H65" t="n">
-        <v>38.1</v>
+        <v>49.7</v>
       </c>
       <c r="I65" t="n">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="J65" t="n">
-        <v>53.4</v>
+        <v>85.5</v>
       </c>
       <c r="K65" t="n">
-        <v>85.5</v>
+        <v>104.3</v>
       </c>
       <c r="L65" t="n">
-        <v>104.3</v>
+        <v>113.8</v>
       </c>
       <c r="M65" t="n">
-        <v>113.8</v>
+        <v>13.9</v>
       </c>
       <c r="N65" t="n">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="O65" t="n">
-        <v>12.3</v>
+        <v>26.2</v>
       </c>
       <c r="P65" t="n">
-        <v>26.2</v>
+        <v>0.7</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="R65" t="n">
-        <v>3.7</v>
+        <v>32.1</v>
       </c>
       <c r="S65" t="n">
-        <v>32.1</v>
+        <v>9.5</v>
       </c>
       <c r="T65" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4911,57 +4714,54 @@
         <v>4.7</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>26.6</v>
       </c>
       <c r="F66" t="n">
+        <v>41</v>
+      </c>
+      <c r="G66" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="L66" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="M66" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O66" t="n">
         <v>26.6</v>
       </c>
-      <c r="G66" t="n">
-        <v>41</v>
-      </c>
-      <c r="H66" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="I66" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="K66" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="L66" t="n">
-        <v>117.9</v>
-      </c>
-      <c r="M66" t="n">
-        <v>122.7</v>
-      </c>
-      <c r="N66" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="O66" t="n">
-        <v>12.2</v>
-      </c>
       <c r="P66" t="n">
-        <v>26.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>45.1</v>
       </c>
       <c r="S66" t="n">
-        <v>45.1</v>
+        <v>4.8</v>
       </c>
       <c r="T66" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4979,57 +4779,54 @@
         <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="F67" t="n">
-        <v>23.8</v>
+        <v>32.5</v>
       </c>
       <c r="G67" t="n">
-        <v>32.5</v>
+        <v>35.5</v>
       </c>
       <c r="H67" t="n">
-        <v>35.5</v>
+        <v>49.3</v>
       </c>
       <c r="I67" t="n">
-        <v>49.3</v>
+        <v>52</v>
       </c>
       <c r="J67" t="n">
-        <v>52</v>
+        <v>82.3</v>
       </c>
       <c r="K67" t="n">
-        <v>82.3</v>
+        <v>92.3</v>
       </c>
       <c r="L67" t="n">
-        <v>92.3</v>
+        <v>97.2</v>
       </c>
       <c r="M67" t="n">
-        <v>97.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N67" t="n">
-        <v>8.699999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="O67" t="n">
-        <v>16.8</v>
+        <v>25.5</v>
       </c>
       <c r="P67" t="n">
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R67" t="n">
-        <v>2.7</v>
+        <v>30.3</v>
       </c>
       <c r="S67" t="n">
-        <v>30.3</v>
+        <v>4.9</v>
       </c>
       <c r="T67" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5047,57 +4844,54 @@
         <v>5</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="F68" t="n">
-        <v>26.9</v>
+        <v>39.6</v>
       </c>
       <c r="G68" t="n">
-        <v>39.6</v>
+        <v>40.6</v>
       </c>
       <c r="H68" t="n">
-        <v>40.6</v>
+        <v>53.9</v>
       </c>
       <c r="I68" t="n">
-        <v>53.9</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>64.90000000000001</v>
+        <v>105.8</v>
       </c>
       <c r="K68" t="n">
-        <v>105.8</v>
+        <v>110.7</v>
       </c>
       <c r="L68" t="n">
-        <v>110.7</v>
+        <v>119.1</v>
       </c>
       <c r="M68" t="n">
-        <v>119.1</v>
+        <v>12.7</v>
       </c>
       <c r="N68" t="n">
-        <v>12.7</v>
+        <v>14.3</v>
       </c>
       <c r="O68" t="n">
-        <v>14.3</v>
+        <v>27</v>
       </c>
       <c r="P68" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R68" t="n">
-        <v>11</v>
+        <v>40.9</v>
       </c>
       <c r="S68" t="n">
-        <v>40.9</v>
+        <v>8.4</v>
       </c>
       <c r="T68" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5115,57 +4909,54 @@
         <v>9.699999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>19.9</v>
       </c>
       <c r="F69" t="n">
-        <v>19.9</v>
+        <v>29.7</v>
       </c>
       <c r="G69" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="H69" t="n">
-        <v>29.8</v>
+        <v>40.6</v>
       </c>
       <c r="I69" t="n">
-        <v>40.6</v>
+        <v>46.1</v>
       </c>
       <c r="J69" t="n">
-        <v>46.1</v>
+        <v>71.8</v>
       </c>
       <c r="K69" t="n">
-        <v>71.8</v>
+        <v>81</v>
       </c>
       <c r="L69" t="n">
-        <v>81</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="M69" t="n">
-        <v>86.09999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N69" t="n">
-        <v>9.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="O69" t="n">
-        <v>10.9</v>
+        <v>20.7</v>
       </c>
       <c r="P69" t="n">
-        <v>20.7</v>
+        <v>0.1</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.1</v>
+        <v>5.5</v>
       </c>
       <c r="R69" t="n">
-        <v>5.5</v>
+        <v>25.7</v>
       </c>
       <c r="S69" t="n">
-        <v>25.7</v>
+        <v>5.1</v>
       </c>
       <c r="T69" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5183,57 +4974,54 @@
         <v>5.7</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>21.2</v>
       </c>
       <c r="F70" t="n">
-        <v>21.2</v>
+        <v>32</v>
       </c>
       <c r="G70" t="n">
-        <v>32</v>
+        <v>32.6</v>
       </c>
       <c r="H70" t="n">
-        <v>32.6</v>
+        <v>43.5</v>
       </c>
       <c r="I70" t="n">
-        <v>43.5</v>
+        <v>45.8</v>
       </c>
       <c r="J70" t="n">
-        <v>45.8</v>
+        <v>91.2</v>
       </c>
       <c r="K70" t="n">
-        <v>91.2</v>
+        <v>98.7</v>
       </c>
       <c r="L70" t="n">
-        <v>98.7</v>
+        <v>112.6</v>
       </c>
       <c r="M70" t="n">
-        <v>112.6</v>
+        <v>10.8</v>
       </c>
       <c r="N70" t="n">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="O70" t="n">
-        <v>11.5</v>
+        <v>22.3</v>
       </c>
       <c r="P70" t="n">
-        <v>22.3</v>
+        <v>0.6</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="R70" t="n">
-        <v>2.3</v>
+        <v>45.4</v>
       </c>
       <c r="S70" t="n">
-        <v>45.4</v>
+        <v>13.9</v>
       </c>
       <c r="T70" t="n">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
-      </c>
-      <c r="V70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5251,57 +5039,54 @@
         <v>4.9</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="F71" t="n">
         <v>27.3</v>
       </c>
       <c r="G71" t="n">
-        <v>27.3</v>
+        <v>41.4</v>
       </c>
       <c r="H71" t="n">
-        <v>41.4</v>
+        <v>42</v>
       </c>
       <c r="I71" t="n">
-        <v>42</v>
+        <v>61.5</v>
       </c>
       <c r="J71" t="n">
-        <v>61.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>85.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="L71" t="n">
-        <v>93.3</v>
+        <v>101.8</v>
       </c>
       <c r="M71" t="n">
-        <v>101.8</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="O71" t="n">
         <v>14.7</v>
       </c>
       <c r="P71" t="n">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="Q71" t="n">
-        <v>14.1</v>
+        <v>19.5</v>
       </c>
       <c r="R71" t="n">
-        <v>19.5</v>
+        <v>24.1</v>
       </c>
       <c r="S71" t="n">
-        <v>24.1</v>
+        <v>8.5</v>
       </c>
       <c r="T71" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5319,57 +5104,54 @@
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>29.5</v>
       </c>
       <c r="F72" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="G72" t="n">
-        <v>29.7</v>
+        <v>40</v>
       </c>
       <c r="H72" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="I72" t="n">
-        <v>40.1</v>
+        <v>53.6</v>
       </c>
       <c r="J72" t="n">
-        <v>53.6</v>
+        <v>87</v>
       </c>
       <c r="K72" t="n">
-        <v>87</v>
+        <v>101.1</v>
       </c>
       <c r="L72" t="n">
-        <v>101.1</v>
+        <v>111.5</v>
       </c>
       <c r="M72" t="n">
-        <v>111.5</v>
+        <v>0.2</v>
       </c>
       <c r="N72" t="n">
-        <v>0.2</v>
+        <v>10.4</v>
       </c>
       <c r="O72" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="P72" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="S72" t="n">
         <v>10.4</v>
       </c>
-      <c r="P72" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="R72" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="S72" t="n">
-        <v>33.4</v>
-      </c>
       <c r="T72" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5387,57 +5169,54 @@
         <v>5.8</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>27.2</v>
       </c>
       <c r="F73" t="n">
-        <v>27.2</v>
+        <v>39.8</v>
       </c>
       <c r="G73" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="H73" t="n">
-        <v>40.5</v>
+        <v>52.8</v>
       </c>
       <c r="I73" t="n">
-        <v>52.8</v>
+        <v>55.7</v>
       </c>
       <c r="J73" t="n">
-        <v>55.7</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>84.40000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="L73" t="n">
-        <v>100.8</v>
+        <v>112.2</v>
       </c>
       <c r="M73" t="n">
-        <v>112.2</v>
+        <v>12.6</v>
       </c>
       <c r="N73" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="O73" t="n">
-        <v>13</v>
+        <v>25.6</v>
       </c>
       <c r="P73" t="n">
-        <v>25.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="R73" t="n">
-        <v>2.9</v>
+        <v>28.7</v>
       </c>
       <c r="S73" t="n">
-        <v>28.7</v>
+        <v>11.4</v>
       </c>
       <c r="T73" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,57 +5234,54 @@
         <v>5.4</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F74" t="n">
-        <v>26</v>
+        <v>37.3</v>
       </c>
       <c r="G74" t="n">
-        <v>37.3</v>
+        <v>39.7</v>
       </c>
       <c r="H74" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="I74" t="n">
-        <v>39.8</v>
+        <v>57.1</v>
       </c>
       <c r="J74" t="n">
-        <v>57.1</v>
+        <v>96.2</v>
       </c>
       <c r="K74" t="n">
-        <v>96.2</v>
+        <v>102.7</v>
       </c>
       <c r="L74" t="n">
-        <v>102.7</v>
+        <v>111.2</v>
       </c>
       <c r="M74" t="n">
-        <v>111.2</v>
+        <v>11.3</v>
       </c>
       <c r="N74" t="n">
-        <v>11.3</v>
+        <v>2.5</v>
       </c>
       <c r="O74" t="n">
-        <v>2.5</v>
+        <v>13.8</v>
       </c>
       <c r="P74" t="n">
-        <v>13.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.4</v>
+        <v>17.3</v>
       </c>
       <c r="R74" t="n">
-        <v>17.3</v>
+        <v>39.1</v>
       </c>
       <c r="S74" t="n">
-        <v>39.1</v>
+        <v>8.5</v>
       </c>
       <c r="T74" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5523,57 +5299,54 @@
         <v>7.6</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>24.3</v>
       </c>
       <c r="F75" t="n">
-        <v>24.3</v>
+        <v>34.1</v>
       </c>
       <c r="G75" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="H75" t="n">
-        <v>34.3</v>
+        <v>44.5</v>
       </c>
       <c r="I75" t="n">
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="J75" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K75" t="n">
-        <v>84</v>
+        <v>90.7</v>
       </c>
       <c r="L75" t="n">
-        <v>90.7</v>
+        <v>96.5</v>
       </c>
       <c r="M75" t="n">
-        <v>96.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N75" t="n">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="O75" t="n">
-        <v>10.4</v>
+        <v>20.2</v>
       </c>
       <c r="P75" t="n">
-        <v>20.2</v>
+        <v>0.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="R75" t="n">
-        <v>1.5</v>
+        <v>38</v>
       </c>
       <c r="S75" t="n">
-        <v>38</v>
+        <v>5.8</v>
       </c>
       <c r="T75" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5591,57 +5364,54 @@
         <v>3.7</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>26.4</v>
       </c>
       <c r="F76" t="n">
-        <v>26.4</v>
+        <v>38.8</v>
       </c>
       <c r="G76" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="H76" t="n">
-        <v>39.3</v>
+        <v>53.9</v>
       </c>
       <c r="I76" t="n">
-        <v>53.9</v>
+        <v>61.6</v>
       </c>
       <c r="J76" t="n">
-        <v>61.6</v>
+        <v>112.1</v>
       </c>
       <c r="K76" t="n">
-        <v>112.1</v>
+        <v>125.3</v>
       </c>
       <c r="L76" t="n">
-        <v>125.3</v>
+        <v>132.6</v>
       </c>
       <c r="M76" t="n">
-        <v>132.6</v>
+        <v>12.4</v>
       </c>
       <c r="N76" t="n">
-        <v>12.4</v>
+        <v>15.1</v>
       </c>
       <c r="O76" t="n">
-        <v>15.1</v>
+        <v>27.5</v>
       </c>
       <c r="P76" t="n">
-        <v>27.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.5</v>
+        <v>7.7</v>
       </c>
       <c r="R76" t="n">
-        <v>7.7</v>
+        <v>50.5</v>
       </c>
       <c r="S76" t="n">
-        <v>50.5</v>
+        <v>7.3</v>
       </c>
       <c r="T76" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5659,57 +5429,54 @@
         <v>5.7</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>30.4</v>
       </c>
       <c r="F77" t="n">
-        <v>30.4</v>
+        <v>42.1</v>
       </c>
       <c r="G77" t="n">
-        <v>42.1</v>
+        <v>42.5</v>
       </c>
       <c r="H77" t="n">
-        <v>42.5</v>
+        <v>42.8</v>
       </c>
       <c r="I77" t="n">
-        <v>42.8</v>
+        <v>55.8</v>
       </c>
       <c r="J77" t="n">
-        <v>55.8</v>
+        <v>95.2</v>
       </c>
       <c r="K77" t="n">
-        <v>95.2</v>
+        <v>102.1</v>
       </c>
       <c r="L77" t="n">
-        <v>102.1</v>
+        <v>106.8</v>
       </c>
       <c r="M77" t="n">
-        <v>106.8</v>
+        <v>11.7</v>
       </c>
       <c r="N77" t="n">
-        <v>11.7</v>
+        <v>0.7</v>
       </c>
       <c r="O77" t="n">
-        <v>0.7</v>
+        <v>12.4</v>
       </c>
       <c r="P77" t="n">
-        <v>12.4</v>
+        <v>0.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.4</v>
+        <v>13</v>
       </c>
       <c r="R77" t="n">
-        <v>13</v>
+        <v>39.4</v>
       </c>
       <c r="S77" t="n">
-        <v>39.4</v>
+        <v>4.7</v>
       </c>
       <c r="T77" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5727,57 +5494,54 @@
         <v>7.6</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>26.7</v>
       </c>
       <c r="F78" t="n">
-        <v>26.7</v>
+        <v>38.8</v>
       </c>
       <c r="G78" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="H78" t="n">
-        <v>39</v>
+        <v>50.7</v>
       </c>
       <c r="I78" t="n">
-        <v>50.7</v>
+        <v>53.8</v>
       </c>
       <c r="J78" t="n">
-        <v>53.8</v>
+        <v>89.2</v>
       </c>
       <c r="K78" t="n">
-        <v>89.2</v>
+        <v>106.6</v>
       </c>
       <c r="L78" t="n">
-        <v>106.6</v>
+        <v>110.1</v>
       </c>
       <c r="M78" t="n">
-        <v>110.1</v>
+        <v>12.1</v>
       </c>
       <c r="N78" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="O78" t="n">
-        <v>11.9</v>
+        <v>24</v>
       </c>
       <c r="P78" t="n">
-        <v>24</v>
+        <v>0.2</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="R78" t="n">
-        <v>3.1</v>
+        <v>35.4</v>
       </c>
       <c r="S78" t="n">
-        <v>35.4</v>
+        <v>3.5</v>
       </c>
       <c r="T78" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5795,57 +5559,54 @@
         <v>6.3</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>28.3</v>
       </c>
       <c r="F79" t="n">
-        <v>28.3</v>
+        <v>39.3</v>
       </c>
       <c r="G79" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="H79" t="n">
-        <v>39.5</v>
+        <v>51</v>
       </c>
       <c r="I79" t="n">
-        <v>51</v>
+        <v>51.9</v>
       </c>
       <c r="J79" t="n">
-        <v>51.9</v>
+        <v>93.5</v>
       </c>
       <c r="K79" t="n">
-        <v>93.5</v>
+        <v>98.3</v>
       </c>
       <c r="L79" t="n">
-        <v>98.3</v>
+        <v>107.6</v>
       </c>
       <c r="M79" t="n">
-        <v>107.6</v>
+        <v>11</v>
       </c>
       <c r="N79" t="n">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="O79" t="n">
-        <v>11.7</v>
+        <v>22.7</v>
       </c>
       <c r="P79" t="n">
-        <v>22.7</v>
+        <v>0.2</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="R79" t="n">
-        <v>0.9</v>
+        <v>41.6</v>
       </c>
       <c r="S79" t="n">
-        <v>41.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T79" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5863,57 +5624,54 @@
         <v>8.6</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>24.4</v>
       </c>
       <c r="F80" t="n">
-        <v>24.4</v>
+        <v>36.5</v>
       </c>
       <c r="G80" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="H80" t="n">
-        <v>36.7</v>
+        <v>48.7</v>
       </c>
       <c r="I80" t="n">
-        <v>48.7</v>
+        <v>49.8</v>
       </c>
       <c r="J80" t="n">
-        <v>49.8</v>
+        <v>91.3</v>
       </c>
       <c r="K80" t="n">
-        <v>91.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L80" t="n">
-        <v>96.90000000000001</v>
+        <v>102.1</v>
       </c>
       <c r="M80" t="n">
-        <v>102.1</v>
+        <v>12.1</v>
       </c>
       <c r="N80" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="O80" t="n">
-        <v>12.2</v>
+        <v>24.3</v>
       </c>
       <c r="P80" t="n">
-        <v>24.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="R80" t="n">
-        <v>1.1</v>
+        <v>41.5</v>
       </c>
       <c r="S80" t="n">
-        <v>41.5</v>
+        <v>5.2</v>
       </c>
       <c r="T80" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
-      </c>
-      <c r="V80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5931,57 +5689,54 @@
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>24.6</v>
       </c>
       <c r="F81" t="n">
-        <v>24.6</v>
+        <v>36.3</v>
       </c>
       <c r="G81" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="H81" t="n">
-        <v>36.6</v>
+        <v>51.1</v>
       </c>
       <c r="I81" t="n">
-        <v>51.1</v>
+        <v>61.9</v>
       </c>
       <c r="J81" t="n">
-        <v>61.9</v>
+        <v>87</v>
       </c>
       <c r="K81" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L81" t="n">
-        <v>94</v>
+        <v>104.9</v>
       </c>
       <c r="M81" t="n">
-        <v>104.9</v>
+        <v>11.7</v>
       </c>
       <c r="N81" t="n">
-        <v>11.7</v>
+        <v>14.8</v>
       </c>
       <c r="O81" t="n">
-        <v>14.8</v>
+        <v>26.5</v>
       </c>
       <c r="P81" t="n">
-        <v>26.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.3</v>
+        <v>10.8</v>
       </c>
       <c r="R81" t="n">
-        <v>10.8</v>
+        <v>25.1</v>
       </c>
       <c r="S81" t="n">
-        <v>25.1</v>
+        <v>10.9</v>
       </c>
       <c r="T81" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
-      </c>
-      <c r="V81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5999,57 +5754,54 @@
         <v>7.4</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="F82" t="n">
-        <v>28.4</v>
+        <v>39.4</v>
       </c>
       <c r="G82" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="H82" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="I82" t="n">
-        <v>39.9</v>
+        <v>56.2</v>
       </c>
       <c r="J82" t="n">
-        <v>56.2</v>
+        <v>94.3</v>
       </c>
       <c r="K82" t="n">
-        <v>94.3</v>
+        <v>100.5</v>
       </c>
       <c r="L82" t="n">
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
       <c r="M82" t="n">
-        <v>104.5</v>
+        <v>11</v>
       </c>
       <c r="N82" t="n">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="O82" t="n">
-        <v>0.5</v>
+        <v>11.5</v>
       </c>
       <c r="P82" t="n">
-        <v>11.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.3</v>
+        <v>16.3</v>
       </c>
       <c r="R82" t="n">
-        <v>16.3</v>
+        <v>38.1</v>
       </c>
       <c r="S82" t="n">
-        <v>38.1</v>
+        <v>4</v>
       </c>
       <c r="T82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
-      </c>
-      <c r="V82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6067,57 +5819,54 @@
         <v>5.1</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>26.8</v>
       </c>
       <c r="F83" t="n">
-        <v>26.8</v>
+        <v>36.8</v>
       </c>
       <c r="G83" t="n">
-        <v>36.8</v>
+        <v>37.8</v>
       </c>
       <c r="H83" t="n">
-        <v>37.8</v>
+        <v>45.7</v>
       </c>
       <c r="I83" t="n">
-        <v>45.7</v>
+        <v>59.7</v>
       </c>
       <c r="J83" t="n">
-        <v>59.7</v>
+        <v>96.8</v>
       </c>
       <c r="K83" t="n">
-        <v>96.8</v>
+        <v>101.8</v>
       </c>
       <c r="L83" t="n">
-        <v>101.8</v>
+        <v>119.1</v>
       </c>
       <c r="M83" t="n">
-        <v>119.1</v>
+        <v>10</v>
       </c>
       <c r="N83" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="O83" t="n">
-        <v>8.9</v>
+        <v>18.9</v>
       </c>
       <c r="P83" t="n">
-        <v>18.9</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="R83" t="n">
-        <v>14</v>
+        <v>37.1</v>
       </c>
       <c r="S83" t="n">
-        <v>37.1</v>
+        <v>17.3</v>
       </c>
       <c r="T83" t="n">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
-      </c>
-      <c r="V83" t="n">
         <v>0</v>
       </c>
     </row>
